--- a/biology/Biochimie/Polyacrylamide/Polyacrylamide.xlsx
+++ b/biology/Biochimie/Polyacrylamide/Polyacrylamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le polyacrylamide est un polymère répondant à la formule [-CH2-CH(-CONH2)-]n, formé à partir d'acrylamide.
@@ -513,7 +525,9 @@
           <t>Structure moléculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le polyacrylamide, contrairement à l'acrylamide qui est neurotoxique, n'est pas toxique mais doit être manipulé avec précaution car il peut contenir des traces de monomère acrylamide.
 Le polyacrylamide est un gel hautement absorbant. Sous forme de poudre, il se dilue dans l'eau pour former un gel visqueux après agitation vigoureuse.
@@ -547,7 +561,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biologie moléculaire : électrophorèse sur gel de polyacrylamide en présence de dodécylsulfate de sodium
 Agriculture : amendement
